--- a/src/main/resources/deploy/template/mall/purchaseorder.xlsx
+++ b/src/main/resources/deploy/template/mall/purchaseorder.xlsx
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>${item.itemNo}</t>
   </si>
@@ -150,18 +150,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>${item.isInclusedVat == '과세' ? '1' : ''}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>${item.deliveryDate}</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>${item.isInclusedVat == '과세' ? '10' : '0'}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>${item.price}</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -171,6 +163,18 @@
   </si>
   <si>
     <t>납품예정일</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[G2 * E2 - H2]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.curAmt}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.curAmt / 1.1}</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -742,12 +746,13 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="9" max="9" width="12.875" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -761,10 +766,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
@@ -801,24 +806,26 @@
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="M2" s="5" t="s">
         <v>15</v>
       </c>

--- a/src/main/resources/deploy/template/mall/purchaseorder.xlsx
+++ b/src/main/resources/deploy/template/mall/purchaseorder.xlsx
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>${item.itemNo}</t>
   </si>
@@ -154,10 +154,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>${item.price}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>발주수량</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -166,15 +162,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>$[G2 * E2 - H2]</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>${item.curAmt}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>${item.curAmt / 1.1}</t>
+    <t>${item.isInclusedVat == '과세' ? (Item.price / 1.1) : item.price}</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -182,8 +170,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -411,7 +400,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -426,6 +415,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -746,7 +738,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -766,10 +758,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
@@ -812,20 +804,14 @@
         <v>2</v>
       </c>
       <c r="F2" s="5"/>
-      <c r="G2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="G2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
       <c r="M2" s="5" t="s">
         <v>15</v>
       </c>

--- a/src/main/resources/deploy/template/mall/purchaseorder.xlsx
+++ b/src/main/resources/deploy/template/mall/purchaseorder.xlsx
@@ -95,9 +95,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>${item.qty}</t>
-  </si>
-  <si>
     <t>현재고</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -162,7 +159,11 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>${item.isInclusedVat == '과세' ? (Item.price / 1.1) : item.price}</t>
+    <t>$[ABS(${item.qty})]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.isInclusedVat == '과세' ? item.price / 1.1 : item.price}</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -170,9 +171,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -400,7 +400,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -415,9 +415,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -749,46 +746,46 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -798,13 +795,13 @@
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F2" s="5"/>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H2" s="5"/>
@@ -813,10 +810,10 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/deploy/template/mall/purchaseorder.xlsx
+++ b/src/main/resources/deploy/template/mall/purchaseorder.xlsx
@@ -163,7 +163,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>${item.isInclusedVat == '과세' ? item.price / 1.1 : item.price}</t>
+    <t>${item.smVatKindName == '과세' ? item.price / 1.1 : item.price}</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
